--- a/Code/Results/Cases/Case_1_230/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_230/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9916116139489448</v>
+        <v>1.032330411378405</v>
       </c>
       <c r="D2">
-        <v>1.038386471365325</v>
+        <v>1.050090301998843</v>
       </c>
       <c r="E2">
-        <v>1.01174318102994</v>
+        <v>1.042570697001373</v>
       </c>
       <c r="F2">
-        <v>1.029138134332786</v>
+        <v>1.055438703108253</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050582591033868</v>
+        <v>1.0371631416238</v>
       </c>
       <c r="J2">
-        <v>1.014046148035788</v>
+        <v>1.037461224153471</v>
       </c>
       <c r="K2">
-        <v>1.04933572202938</v>
+        <v>1.052845545953301</v>
       </c>
       <c r="L2">
-        <v>1.023041303485797</v>
+        <v>1.045347010076581</v>
       </c>
       <c r="M2">
-        <v>1.040205922229749</v>
+        <v>1.058179159405954</v>
       </c>
       <c r="N2">
-        <v>1.015486209878717</v>
+        <v>1.038934538090235</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9967376365948818</v>
+        <v>1.033427835524426</v>
       </c>
       <c r="D3">
-        <v>1.041581350357498</v>
+        <v>1.050762338969189</v>
       </c>
       <c r="E3">
-        <v>1.01589363264941</v>
+        <v>1.043506117794467</v>
       </c>
       <c r="F3">
-        <v>1.033314949602076</v>
+        <v>1.05636636981964</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051467322569304</v>
+        <v>1.037278048912751</v>
       </c>
       <c r="J3">
-        <v>1.017317633753334</v>
+        <v>1.038200146232684</v>
       </c>
       <c r="K3">
-        <v>1.051708460156068</v>
+        <v>1.053330321739099</v>
       </c>
       <c r="L3">
-        <v>1.026327111492511</v>
+        <v>1.046092963146672</v>
       </c>
       <c r="M3">
-        <v>1.043538591571311</v>
+        <v>1.058919976155134</v>
       </c>
       <c r="N3">
-        <v>1.018762341481227</v>
+        <v>1.039674509523555</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9999846078016685</v>
+        <v>1.034138530754517</v>
       </c>
       <c r="D4">
-        <v>1.043604854086095</v>
+        <v>1.051196767554782</v>
       </c>
       <c r="E4">
-        <v>1.018528452463405</v>
+        <v>1.0441120952042</v>
       </c>
       <c r="F4">
-        <v>1.035964532038987</v>
+        <v>1.056966943621954</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052015804076218</v>
+        <v>1.037350882755665</v>
       </c>
       <c r="J4">
-        <v>1.019388707321439</v>
+        <v>1.038678323185055</v>
       </c>
       <c r="K4">
-        <v>1.053204018864478</v>
+        <v>1.053642899056258</v>
       </c>
       <c r="L4">
-        <v>1.028408282523704</v>
+        <v>1.046575716871396</v>
       </c>
       <c r="M4">
-        <v>1.04564744076429</v>
+        <v>1.059399016363987</v>
       </c>
       <c r="N4">
-        <v>1.020836356211354</v>
+        <v>1.040153365542046</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001333573300753</v>
+        <v>1.034437447968713</v>
       </c>
       <c r="D5">
-        <v>1.044445338233229</v>
+        <v>1.051379298188842</v>
       </c>
       <c r="E5">
-        <v>1.019624418060045</v>
+        <v>1.044367014342205</v>
       </c>
       <c r="F5">
-        <v>1.037066134245</v>
+        <v>1.057219498245462</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05224074263942</v>
+        <v>1.03738113788672</v>
       </c>
       <c r="J5">
-        <v>1.020248815654475</v>
+        <v>1.038879359162553</v>
       </c>
       <c r="K5">
-        <v>1.053823470142063</v>
+        <v>1.053774040804262</v>
       </c>
       <c r="L5">
-        <v>1.029272814587825</v>
+        <v>1.0467786832126</v>
       </c>
       <c r="M5">
-        <v>1.046522958807414</v>
+        <v>1.059600327790475</v>
       </c>
       <c r="N5">
-        <v>1.021697685996879</v>
+        <v>1.040354687013692</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.001559147642303</v>
+        <v>1.034487645751206</v>
       </c>
       <c r="D6">
-        <v>1.044585869382863</v>
+        <v>1.051409939791293</v>
       </c>
       <c r="E6">
-        <v>1.019807761289626</v>
+        <v>1.04440982611282</v>
       </c>
       <c r="F6">
-        <v>1.037250389933645</v>
+        <v>1.057261907548494</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052278182772501</v>
+        <v>1.037386196481075</v>
       </c>
       <c r="J6">
-        <v>1.02039262276733</v>
+        <v>1.038913114585986</v>
       </c>
       <c r="K6">
-        <v>1.053926941130528</v>
+        <v>1.053796044461502</v>
       </c>
       <c r="L6">
-        <v>1.029417374392586</v>
+        <v>1.046812763114491</v>
       </c>
       <c r="M6">
-        <v>1.046669324625147</v>
+        <v>1.059634124315749</v>
       </c>
       <c r="N6">
-        <v>1.02184169733233</v>
+        <v>1.040388490373699</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000002694987874</v>
+        <v>1.034142524347069</v>
       </c>
       <c r="D7">
-        <v>1.043616124371003</v>
+        <v>1.051199206945328</v>
       </c>
       <c r="E7">
-        <v>1.01854314225437</v>
+        <v>1.044115500793982</v>
       </c>
       <c r="F7">
-        <v>1.035979299409699</v>
+        <v>1.056970317982256</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052018831757666</v>
+        <v>1.037351288458086</v>
       </c>
       <c r="J7">
-        <v>1.019400241163028</v>
+        <v>1.038681009397284</v>
       </c>
       <c r="K7">
-        <v>1.053212332167028</v>
+        <v>1.053644652424491</v>
       </c>
       <c r="L7">
-        <v>1.028419874798286</v>
+        <v>1.04657842885283</v>
       </c>
       <c r="M7">
-        <v>1.045659182409036</v>
+        <v>1.059401706601255</v>
       </c>
       <c r="N7">
-        <v>1.020847906432321</v>
+        <v>1.040156055569006</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.993358870716485</v>
+        <v>1.032701169209443</v>
       </c>
       <c r="D8">
-        <v>1.039475442271883</v>
+        <v>1.050317506944462</v>
       </c>
       <c r="E8">
-        <v>1.013156641944632</v>
+        <v>1.042886681928638</v>
       </c>
       <c r="F8">
-        <v>1.03056096806818</v>
+        <v>1.055752147243461</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050886622788231</v>
+        <v>1.03720228920964</v>
       </c>
       <c r="J8">
-        <v>1.015161487748602</v>
+        <v>1.037710936794531</v>
       </c>
       <c r="K8">
-        <v>1.050145979835672</v>
+        <v>1.05300960627827</v>
       </c>
       <c r="L8">
-        <v>1.024161299178931</v>
+        <v>1.045599093090227</v>
       </c>
       <c r="M8">
-        <v>1.041342291906248</v>
+        <v>1.058429587087024</v>
       </c>
       <c r="N8">
-        <v>1.016603133501855</v>
+        <v>1.039184605351887</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9810838334719636</v>
+        <v>1.030165820607669</v>
       </c>
       <c r="D9">
-        <v>1.031829876236799</v>
+        <v>1.048760658606318</v>
       </c>
       <c r="E9">
-        <v>1.003254436549036</v>
+        <v>1.040726722877036</v>
       </c>
       <c r="F9">
-        <v>1.020586054293132</v>
+        <v>1.053608010547559</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048702819185492</v>
+        <v>1.036928127224596</v>
       </c>
       <c r="J9">
-        <v>1.007322720635796</v>
+        <v>1.036001905653516</v>
       </c>
       <c r="K9">
-        <v>1.04442681340475</v>
+        <v>1.051882163761616</v>
       </c>
       <c r="L9">
-        <v>1.016294932544268</v>
+        <v>1.043873958183422</v>
       </c>
       <c r="M9">
-        <v>1.033353738730958</v>
+        <v>1.05671419870409</v>
       </c>
       <c r="N9">
-        <v>1.00875323444063</v>
+        <v>1.037473147190624</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9724701044742707</v>
+        <v>1.028478608655303</v>
       </c>
       <c r="D10">
-        <v>1.026477615296167</v>
+        <v>1.047720713811343</v>
       </c>
       <c r="E10">
-        <v>0.9963448955682082</v>
+        <v>1.039290409332847</v>
       </c>
       <c r="F10">
-        <v>1.013618362889282</v>
+        <v>1.052180290707649</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047112718653624</v>
+        <v>1.036737584309498</v>
       </c>
       <c r="J10">
-        <v>1.00182022601142</v>
+        <v>1.034862814517298</v>
       </c>
       <c r="K10">
-        <v>1.040384716831985</v>
+        <v>1.051124951774597</v>
       </c>
       <c r="L10">
-        <v>1.010780459148541</v>
+        <v>1.042724292709452</v>
       </c>
       <c r="M10">
-        <v>1.02774601121566</v>
+        <v>1.055569057923208</v>
       </c>
       <c r="N10">
-        <v>1.003242925642742</v>
+        <v>1.036332438414336</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9686262385890656</v>
+        <v>1.027748741182887</v>
       </c>
       <c r="D11">
-        <v>1.024094524316508</v>
+        <v>1.047269940173344</v>
       </c>
       <c r="E11">
-        <v>0.9932720897548288</v>
+        <v>1.03866934637367</v>
       </c>
       <c r="F11">
-        <v>1.010518462604404</v>
+        <v>1.051562490198061</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046390551006512</v>
+        <v>1.036653241866687</v>
       </c>
       <c r="J11">
-        <v>0.9993650636247746</v>
+        <v>1.034369641595869</v>
       </c>
       <c r="K11">
-        <v>1.038575921905934</v>
+        <v>1.050795760910345</v>
       </c>
       <c r="L11">
-        <v>1.008322009804939</v>
+        <v>1.042226582344272</v>
       </c>
       <c r="M11">
-        <v>1.025244705362956</v>
+        <v>1.055072843840579</v>
       </c>
       <c r="N11">
-        <v>1.000784276643897</v>
+        <v>1.035838565130791</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9671802050305125</v>
+        <v>1.027477741726748</v>
       </c>
       <c r="D12">
-        <v>1.023199034955363</v>
+        <v>1.047102433571698</v>
       </c>
       <c r="E12">
-        <v>0.9921178284121175</v>
+        <v>1.038438787332832</v>
       </c>
       <c r="F12">
-        <v>1.009353886040361</v>
+        <v>1.051333074460989</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046117084267539</v>
+        <v>1.036621638027369</v>
       </c>
       <c r="J12">
-        <v>0.998441565957861</v>
+        <v>1.034186464618654</v>
       </c>
       <c r="K12">
-        <v>1.037894877445338</v>
+        <v>1.050673288627707</v>
       </c>
       <c r="L12">
-        <v>1.007397612591899</v>
+        <v>1.04204172642002</v>
       </c>
       <c r="M12">
-        <v>1.024304048004516</v>
+        <v>1.054888474558249</v>
       </c>
       <c r="N12">
-        <v>0.9998594675043695</v>
+        <v>1.035655128021258</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9674912288990917</v>
+        <v>1.027535867246388</v>
       </c>
       <c r="D13">
-        <v>1.023391594436311</v>
+        <v>1.047138367413667</v>
       </c>
       <c r="E13">
-        <v>0.9923660167045135</v>
+        <v>1.038488237073478</v>
       </c>
       <c r="F13">
-        <v>1.009604297715366</v>
+        <v>1.051382282053213</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04617598291512</v>
+        <v>1.036628429607254</v>
       </c>
       <c r="J13">
-        <v>0.9986401924630658</v>
+        <v>1.034225756272772</v>
       </c>
       <c r="K13">
-        <v>1.038041385549068</v>
+        <v>1.050699568205542</v>
       </c>
       <c r="L13">
-        <v>1.007596416893002</v>
+        <v>1.042081377917501</v>
       </c>
       <c r="M13">
-        <v>1.024506355076752</v>
+        <v>1.054928024791779</v>
       </c>
       <c r="N13">
-        <v>1.000058376081994</v>
+        <v>1.035694475474032</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9685070880733673</v>
+        <v>1.027726338126387</v>
       </c>
       <c r="D14">
-        <v>1.024020715838969</v>
+        <v>1.047256095428369</v>
       </c>
       <c r="E14">
-        <v>0.9931769453852453</v>
+        <v>1.038650285607281</v>
       </c>
       <c r="F14">
-        <v>1.010422470472478</v>
+        <v>1.051543525332924</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046368053687748</v>
+        <v>1.036650635096328</v>
       </c>
       <c r="J14">
-        <v>0.9992889663444364</v>
+        <v>1.034354499936599</v>
       </c>
       <c r="K14">
-        <v>1.038519816088471</v>
+        <v>1.050785641307864</v>
       </c>
       <c r="L14">
-        <v>1.008245831391142</v>
+        <v>1.042211301769434</v>
       </c>
       <c r="M14">
-        <v>1.025167189653488</v>
+        <v>1.055057604899884</v>
       </c>
       <c r="N14">
-        <v>1.000708071296692</v>
+        <v>1.035823401968628</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9691305392047261</v>
+        <v>1.027843707534863</v>
       </c>
       <c r="D15">
-        <v>1.024406958739852</v>
+        <v>1.04732862241897</v>
       </c>
       <c r="E15">
-        <v>0.9936748553440676</v>
+        <v>1.038750146487654</v>
       </c>
       <c r="F15">
-        <v>1.010924811631302</v>
+        <v>1.051642881002556</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046485697722237</v>
+        <v>1.036664280167525</v>
       </c>
       <c r="J15">
-        <v>0.9996871479894658</v>
+        <v>1.034433824410083</v>
       </c>
       <c r="K15">
-        <v>1.038813364907857</v>
+        <v>1.050838647830657</v>
       </c>
       <c r="L15">
-        <v>1.008644451463159</v>
+        <v>1.042291354259579</v>
       </c>
       <c r="M15">
-        <v>1.025572801761203</v>
+        <v>1.055137436448002</v>
       </c>
       <c r="N15">
-        <v>1.00110681840533</v>
+        <v>1.035902839091964</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.97272271296181</v>
+        <v>1.028527062412572</v>
       </c>
       <c r="D16">
-        <v>1.026634354221474</v>
+        <v>1.047750620385672</v>
       </c>
       <c r="E16">
-        <v>0.9965470617911074</v>
+        <v>1.039331645626914</v>
       </c>
       <c r="F16">
-        <v>1.013822289968572</v>
+        <v>1.052221300853678</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047159923741831</v>
+        <v>1.036743143202302</v>
       </c>
       <c r="J16">
-        <v>1.001981584948166</v>
+        <v>1.034895546085949</v>
       </c>
       <c r="K16">
-        <v>1.040503495209074</v>
+        <v>1.051146771520172</v>
       </c>
       <c r="L16">
-        <v>1.010942079244845</v>
+        <v>1.042757326305508</v>
       </c>
       <c r="M16">
-        <v>1.027910425925948</v>
+        <v>1.055601982497138</v>
       </c>
       <c r="N16">
-        <v>1.003404513727687</v>
+        <v>1.036365216465569</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9749446919485778</v>
+        <v>1.028955901783295</v>
       </c>
       <c r="D17">
-        <v>1.028013683602362</v>
+        <v>1.048015203616552</v>
       </c>
       <c r="E17">
-        <v>0.9983265587506679</v>
+        <v>1.039696638128599</v>
       </c>
       <c r="F17">
-        <v>1.015617151220124</v>
+        <v>1.052584239277762</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047573726559087</v>
+        <v>1.036792120714354</v>
       </c>
       <c r="J17">
-        <v>1.003400964473846</v>
+        <v>1.035185188404038</v>
       </c>
       <c r="K17">
-        <v>1.041547735098152</v>
+        <v>1.051339698625718</v>
       </c>
       <c r="L17">
-        <v>1.012363993212672</v>
+        <v>1.043049646009573</v>
       </c>
       <c r="M17">
-        <v>1.029356786159107</v>
+        <v>1.0558932840573</v>
       </c>
       <c r="N17">
-        <v>1.004825908935099</v>
+        <v>1.036655270108972</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9762298089849645</v>
+        <v>1.029206104714445</v>
       </c>
       <c r="D18">
-        <v>1.02881193338686</v>
+        <v>1.048169485023875</v>
       </c>
       <c r="E18">
-        <v>0.9993567526082426</v>
+        <v>1.039909616006106</v>
       </c>
       <c r="F18">
-        <v>1.016656119370829</v>
+        <v>1.052795974763996</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047811856541005</v>
+        <v>1.036820511274134</v>
       </c>
       <c r="J18">
-        <v>1.004221910844759</v>
+        <v>1.03535413774333</v>
       </c>
       <c r="K18">
-        <v>1.042151201541736</v>
+        <v>1.051452102973382</v>
       </c>
       <c r="L18">
-        <v>1.013186598585153</v>
+        <v>1.043220160992027</v>
       </c>
       <c r="M18">
-        <v>1.030193409395446</v>
+        <v>1.056063160479481</v>
       </c>
       <c r="N18">
-        <v>1.005648021144022</v>
+        <v>1.036824459375705</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9766661798583283</v>
+        <v>1.029291429022564</v>
       </c>
       <c r="D19">
-        <v>1.029083062485232</v>
+        <v>1.048222083230584</v>
       </c>
       <c r="E19">
-        <v>0.999706727579571</v>
+        <v>1.039982250174278</v>
       </c>
       <c r="F19">
-        <v>1.017009053309901</v>
+        <v>1.052868177785676</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047892509001599</v>
+        <v>1.036830161649264</v>
       </c>
       <c r="J19">
-        <v>1.004500671551748</v>
+        <v>1.035411746091581</v>
       </c>
       <c r="K19">
-        <v>1.042356025737816</v>
+        <v>1.051490408414312</v>
       </c>
       <c r="L19">
-        <v>1.013465954586095</v>
+        <v>1.043278303849623</v>
       </c>
       <c r="M19">
-        <v>1.030477503327129</v>
+        <v>1.0561210780112</v>
       </c>
       <c r="N19">
-        <v>1.00592717772319</v>
+        <v>1.036882149534419</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9747074324916387</v>
+        <v>1.028909884327116</v>
       </c>
       <c r="D20">
-        <v>1.027866348397867</v>
+        <v>1.047986821036713</v>
       </c>
       <c r="E20">
-        <v>0.9981364429399167</v>
+        <v>1.039657469201787</v>
       </c>
       <c r="F20">
-        <v>1.015425406102432</v>
+        <v>1.05254529531153</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047529665128621</v>
+        <v>1.03678688421486</v>
       </c>
       <c r="J20">
-        <v>1.003249402215017</v>
+        <v>1.035154111914979</v>
       </c>
       <c r="K20">
-        <v>1.041436282123205</v>
+        <v>1.051319012477187</v>
       </c>
       <c r="L20">
-        <v>1.012212140092935</v>
+        <v>1.04301828184995</v>
       </c>
       <c r="M20">
-        <v>1.029202334926097</v>
+        <v>1.055862033754869</v>
       </c>
       <c r="N20">
-        <v>1.004674131440477</v>
+        <v>1.036624149487735</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9682084560742072</v>
+        <v>1.027670246280913</v>
       </c>
       <c r="D21">
-        <v>1.023835743536649</v>
+        <v>1.047221429360523</v>
       </c>
       <c r="E21">
-        <v>0.9929385088838809</v>
+        <v>1.0386025627207</v>
       </c>
       <c r="F21">
-        <v>1.010181907389546</v>
+        <v>1.051496041461786</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046311639175924</v>
+        <v>1.036644103728464</v>
       </c>
       <c r="J21">
-        <v>0.9990982426058147</v>
+        <v>1.034316587874979</v>
       </c>
       <c r="K21">
-        <v>1.038379186777465</v>
+        <v>1.050760300329817</v>
       </c>
       <c r="L21">
-        <v>1.00805490982844</v>
+        <v>1.042173041991422</v>
       </c>
       <c r="M21">
-        <v>1.024972914320518</v>
+        <v>1.055019448251314</v>
       </c>
       <c r="N21">
-        <v>1.000517076708485</v>
+        <v>1.035785436067532</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9640160794422628</v>
+        <v>1.026891448734361</v>
       </c>
       <c r="D22">
-        <v>1.021241678940767</v>
+        <v>1.046739797599631</v>
       </c>
       <c r="E22">
-        <v>0.9895954148003345</v>
+        <v>1.037940061677968</v>
       </c>
       <c r="F22">
-        <v>1.006808733222089</v>
+        <v>1.050836698239248</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045515515759924</v>
+        <v>1.0365527394376</v>
       </c>
       <c r="J22">
-        <v>0.9964211150023885</v>
+        <v>1.033790057796625</v>
       </c>
       <c r="K22">
-        <v>1.036403760818414</v>
+        <v>1.050407881590884</v>
       </c>
       <c r="L22">
-        <v>1.005375845287962</v>
+        <v>1.041641698181632</v>
       </c>
       <c r="M22">
-        <v>1.022246503811796</v>
+        <v>1.054489373493873</v>
       </c>
       <c r="N22">
-        <v>0.9978361472767915</v>
+        <v>1.035258158256073</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9662490015181481</v>
+        <v>1.027304246132738</v>
       </c>
       <c r="D23">
-        <v>1.022622677981466</v>
+        <v>1.046995157086241</v>
       </c>
       <c r="E23">
-        <v>0.9913750135547132</v>
+        <v>1.038291193710585</v>
       </c>
       <c r="F23">
-        <v>1.008604400412636</v>
+        <v>1.051186193676271</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04594048723285</v>
+        <v>1.036601324146169</v>
       </c>
       <c r="J23">
-        <v>0.9978469019201421</v>
+        <v>1.03406917610713</v>
       </c>
       <c r="K23">
-        <v>1.037456159846918</v>
+        <v>1.050594812566451</v>
       </c>
       <c r="L23">
-        <v>1.006802467840961</v>
+        <v>1.041923364702069</v>
       </c>
       <c r="M23">
-        <v>1.023698399676379</v>
+        <v>1.054770405030959</v>
       </c>
       <c r="N23">
-        <v>0.9992639589755081</v>
+        <v>1.035537672946594</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9748146735094081</v>
+        <v>1.028930677423901</v>
       </c>
       <c r="D24">
-        <v>1.027932942238759</v>
+        <v>1.04799964604359</v>
       </c>
       <c r="E24">
-        <v>0.9982223720086975</v>
+        <v>1.039675167694474</v>
       </c>
       <c r="F24">
-        <v>1.015512071966915</v>
+        <v>1.05256289229109</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047549584574892</v>
+        <v>1.036789250911119</v>
       </c>
       <c r="J24">
-        <v>1.003317908117855</v>
+        <v>1.035168154024489</v>
       </c>
       <c r="K24">
-        <v>1.041486660267995</v>
+        <v>1.051328360049055</v>
       </c>
       <c r="L24">
-        <v>1.0122807768676</v>
+        <v>1.04303245393318</v>
       </c>
       <c r="M24">
-        <v>1.029272146424148</v>
+        <v>1.055876154529084</v>
       </c>
       <c r="N24">
-        <v>1.004742734629555</v>
+        <v>1.03663821153865</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9843292962586369</v>
+        <v>1.030820736103857</v>
       </c>
       <c r="D25">
-        <v>1.033849838934598</v>
+        <v>1.049163508562618</v>
       </c>
       <c r="E25">
-        <v>1.005866206061999</v>
+        <v>1.041284482346106</v>
       </c>
       <c r="F25">
-        <v>1.023218444966278</v>
+        <v>1.054162025722583</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049290472935259</v>
+        <v>1.037000376446027</v>
       </c>
       <c r="J25">
-        <v>1.009395801086608</v>
+        <v>1.036443686323376</v>
       </c>
       <c r="K25">
-        <v>1.045944460292216</v>
+        <v>1.052174624001602</v>
       </c>
       <c r="L25">
-        <v>1.018374134200011</v>
+        <v>1.044319874630843</v>
       </c>
       <c r="M25">
-        <v>1.035466707916563</v>
+        <v>1.057157944906388</v>
       </c>
       <c r="N25">
-        <v>1.010829258903468</v>
+        <v>1.037915555239708</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_230/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_230/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032330411378405</v>
+        <v>0.9916116139489437</v>
       </c>
       <c r="D2">
-        <v>1.050090301998843</v>
+        <v>1.038386471365325</v>
       </c>
       <c r="E2">
-        <v>1.042570697001373</v>
+        <v>1.011743181029939</v>
       </c>
       <c r="F2">
-        <v>1.055438703108253</v>
+        <v>1.029138134332784</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0371631416238</v>
+        <v>1.050582591033868</v>
       </c>
       <c r="J2">
-        <v>1.037461224153471</v>
+        <v>1.014046148035787</v>
       </c>
       <c r="K2">
-        <v>1.052845545953301</v>
+        <v>1.049335722029379</v>
       </c>
       <c r="L2">
-        <v>1.045347010076581</v>
+        <v>1.023041303485796</v>
       </c>
       <c r="M2">
-        <v>1.058179159405954</v>
+        <v>1.040205922229747</v>
       </c>
       <c r="N2">
-        <v>1.038934538090235</v>
+        <v>1.015486209878716</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033427835524426</v>
+        <v>0.9967376365948821</v>
       </c>
       <c r="D3">
-        <v>1.050762338969189</v>
+        <v>1.041581350357498</v>
       </c>
       <c r="E3">
-        <v>1.043506117794467</v>
+        <v>1.015893632649411</v>
       </c>
       <c r="F3">
-        <v>1.05636636981964</v>
+        <v>1.033314949602076</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037278048912751</v>
+        <v>1.051467322569304</v>
       </c>
       <c r="J3">
-        <v>1.038200146232684</v>
+        <v>1.017317633753334</v>
       </c>
       <c r="K3">
-        <v>1.053330321739099</v>
+        <v>1.051708460156068</v>
       </c>
       <c r="L3">
-        <v>1.046092963146672</v>
+        <v>1.026327111492512</v>
       </c>
       <c r="M3">
-        <v>1.058919976155134</v>
+        <v>1.043538591571311</v>
       </c>
       <c r="N3">
-        <v>1.039674509523555</v>
+        <v>1.018762341481227</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034138530754517</v>
+        <v>0.9999846078016692</v>
       </c>
       <c r="D4">
-        <v>1.051196767554782</v>
+        <v>1.043604854086096</v>
       </c>
       <c r="E4">
-        <v>1.0441120952042</v>
+        <v>1.018528452463406</v>
       </c>
       <c r="F4">
-        <v>1.056966943621954</v>
+        <v>1.035964532038989</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037350882755665</v>
+        <v>1.052015804076219</v>
       </c>
       <c r="J4">
-        <v>1.038678323185055</v>
+        <v>1.019388707321439</v>
       </c>
       <c r="K4">
-        <v>1.053642899056258</v>
+        <v>1.053204018864479</v>
       </c>
       <c r="L4">
-        <v>1.046575716871396</v>
+        <v>1.028408282523704</v>
       </c>
       <c r="M4">
-        <v>1.059399016363987</v>
+        <v>1.045647440764291</v>
       </c>
       <c r="N4">
-        <v>1.040153365542046</v>
+        <v>1.020836356211355</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034437447968713</v>
+        <v>1.001333573300753</v>
       </c>
       <c r="D5">
-        <v>1.051379298188842</v>
+        <v>1.044445338233229</v>
       </c>
       <c r="E5">
-        <v>1.044367014342205</v>
+        <v>1.019624418060045</v>
       </c>
       <c r="F5">
-        <v>1.057219498245462</v>
+        <v>1.037066134245</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03738113788672</v>
+        <v>1.05224074263942</v>
       </c>
       <c r="J5">
-        <v>1.038879359162553</v>
+        <v>1.020248815654475</v>
       </c>
       <c r="K5">
-        <v>1.053774040804262</v>
+        <v>1.053823470142063</v>
       </c>
       <c r="L5">
-        <v>1.0467786832126</v>
+        <v>1.029272814587825</v>
       </c>
       <c r="M5">
-        <v>1.059600327790475</v>
+        <v>1.046522958807414</v>
       </c>
       <c r="N5">
-        <v>1.040354687013692</v>
+        <v>1.021697685996879</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034487645751206</v>
+        <v>1.001559147642303</v>
       </c>
       <c r="D6">
-        <v>1.051409939791293</v>
+        <v>1.044585869382863</v>
       </c>
       <c r="E6">
-        <v>1.04440982611282</v>
+        <v>1.019807761289626</v>
       </c>
       <c r="F6">
-        <v>1.057261907548494</v>
+        <v>1.037250389933645</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037386196481075</v>
+        <v>1.052278182772501</v>
       </c>
       <c r="J6">
-        <v>1.038913114585986</v>
+        <v>1.020392622767331</v>
       </c>
       <c r="K6">
-        <v>1.053796044461502</v>
+        <v>1.053926941130528</v>
       </c>
       <c r="L6">
-        <v>1.046812763114491</v>
+        <v>1.029417374392587</v>
       </c>
       <c r="M6">
-        <v>1.059634124315749</v>
+        <v>1.046669324625148</v>
       </c>
       <c r="N6">
-        <v>1.040388490373699</v>
+        <v>1.02184169733233</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034142524347069</v>
+        <v>1.000002694987874</v>
       </c>
       <c r="D7">
-        <v>1.051199206945328</v>
+        <v>1.043616124371004</v>
       </c>
       <c r="E7">
-        <v>1.044115500793982</v>
+        <v>1.01854314225437</v>
       </c>
       <c r="F7">
-        <v>1.056970317982256</v>
+        <v>1.035979299409699</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037351288458086</v>
+        <v>1.052018831757666</v>
       </c>
       <c r="J7">
-        <v>1.038681009397284</v>
+        <v>1.019400241163028</v>
       </c>
       <c r="K7">
-        <v>1.053644652424491</v>
+        <v>1.053212332167029</v>
       </c>
       <c r="L7">
-        <v>1.04657842885283</v>
+        <v>1.028419874798286</v>
       </c>
       <c r="M7">
-        <v>1.059401706601255</v>
+        <v>1.045659182409037</v>
       </c>
       <c r="N7">
-        <v>1.040156055569006</v>
+        <v>1.020847906432321</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032701169209443</v>
+        <v>0.9933588707164858</v>
       </c>
       <c r="D8">
-        <v>1.050317506944462</v>
+        <v>1.039475442271884</v>
       </c>
       <c r="E8">
-        <v>1.042886681928638</v>
+        <v>1.013156641944633</v>
       </c>
       <c r="F8">
-        <v>1.055752147243461</v>
+        <v>1.03056096806818</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03720228920964</v>
+        <v>1.050886622788232</v>
       </c>
       <c r="J8">
-        <v>1.037710936794531</v>
+        <v>1.015161487748603</v>
       </c>
       <c r="K8">
-        <v>1.05300960627827</v>
+        <v>1.050145979835672</v>
       </c>
       <c r="L8">
-        <v>1.045599093090227</v>
+        <v>1.024161299178931</v>
       </c>
       <c r="M8">
-        <v>1.058429587087024</v>
+        <v>1.041342291906249</v>
       </c>
       <c r="N8">
-        <v>1.039184605351887</v>
+        <v>1.016603133501856</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030165820607669</v>
+        <v>0.9810838334719635</v>
       </c>
       <c r="D9">
-        <v>1.048760658606318</v>
+        <v>1.031829876236799</v>
       </c>
       <c r="E9">
-        <v>1.040726722877036</v>
+        <v>1.003254436549036</v>
       </c>
       <c r="F9">
-        <v>1.053608010547559</v>
+        <v>1.020586054293132</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036928127224596</v>
+        <v>1.048702819185492</v>
       </c>
       <c r="J9">
-        <v>1.036001905653516</v>
+        <v>1.007322720635796</v>
       </c>
       <c r="K9">
-        <v>1.051882163761616</v>
+        <v>1.04442681340475</v>
       </c>
       <c r="L9">
-        <v>1.043873958183422</v>
+        <v>1.016294932544267</v>
       </c>
       <c r="M9">
-        <v>1.05671419870409</v>
+        <v>1.033353738730958</v>
       </c>
       <c r="N9">
-        <v>1.037473147190624</v>
+        <v>1.00875323444063</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028478608655303</v>
+        <v>0.9724701044742707</v>
       </c>
       <c r="D10">
-        <v>1.047720713811343</v>
+        <v>1.026477615296168</v>
       </c>
       <c r="E10">
-        <v>1.039290409332847</v>
+        <v>0.9963448955682082</v>
       </c>
       <c r="F10">
-        <v>1.052180290707649</v>
+        <v>1.013618362889282</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036737584309498</v>
+        <v>1.047112718653624</v>
       </c>
       <c r="J10">
-        <v>1.034862814517298</v>
+        <v>1.00182022601142</v>
       </c>
       <c r="K10">
-        <v>1.051124951774597</v>
+        <v>1.040384716831986</v>
       </c>
       <c r="L10">
-        <v>1.042724292709452</v>
+        <v>1.010780459148541</v>
       </c>
       <c r="M10">
-        <v>1.055569057923208</v>
+        <v>1.02774601121566</v>
       </c>
       <c r="N10">
-        <v>1.036332438414336</v>
+        <v>1.003242925642742</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027748741182887</v>
+        <v>0.9686262385890657</v>
       </c>
       <c r="D11">
-        <v>1.047269940173344</v>
+        <v>1.024094524316508</v>
       </c>
       <c r="E11">
-        <v>1.03866934637367</v>
+        <v>0.9932720897548288</v>
       </c>
       <c r="F11">
-        <v>1.051562490198061</v>
+        <v>1.010518462604404</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036653241866687</v>
+        <v>1.046390551006512</v>
       </c>
       <c r="J11">
-        <v>1.034369641595869</v>
+        <v>0.9993650636247747</v>
       </c>
       <c r="K11">
-        <v>1.050795760910345</v>
+        <v>1.038575921905934</v>
       </c>
       <c r="L11">
-        <v>1.042226582344272</v>
+        <v>1.008322009804939</v>
       </c>
       <c r="M11">
-        <v>1.055072843840579</v>
+        <v>1.025244705362956</v>
       </c>
       <c r="N11">
-        <v>1.035838565130791</v>
+        <v>1.000784276643897</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027477741726748</v>
+        <v>0.9671802050305126</v>
       </c>
       <c r="D12">
-        <v>1.047102433571698</v>
+        <v>1.023199034955363</v>
       </c>
       <c r="E12">
-        <v>1.038438787332832</v>
+        <v>0.9921178284121173</v>
       </c>
       <c r="F12">
-        <v>1.051333074460989</v>
+        <v>1.009353886040361</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036621638027369</v>
+        <v>1.04611708426754</v>
       </c>
       <c r="J12">
-        <v>1.034186464618654</v>
+        <v>0.998441565957861</v>
       </c>
       <c r="K12">
-        <v>1.050673288627707</v>
+        <v>1.037894877445338</v>
       </c>
       <c r="L12">
-        <v>1.04204172642002</v>
+        <v>1.007397612591899</v>
       </c>
       <c r="M12">
-        <v>1.054888474558249</v>
+        <v>1.024304048004516</v>
       </c>
       <c r="N12">
-        <v>1.035655128021258</v>
+        <v>0.9998594675043696</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027535867246388</v>
+        <v>0.9674912288990907</v>
       </c>
       <c r="D13">
-        <v>1.047138367413667</v>
+        <v>1.023391594436311</v>
       </c>
       <c r="E13">
-        <v>1.038488237073478</v>
+        <v>0.9923660167045124</v>
       </c>
       <c r="F13">
-        <v>1.051382282053213</v>
+        <v>1.009604297715365</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036628429607254</v>
+        <v>1.04617598291512</v>
       </c>
       <c r="J13">
-        <v>1.034225756272772</v>
+        <v>0.9986401924630647</v>
       </c>
       <c r="K13">
-        <v>1.050699568205542</v>
+        <v>1.038041385549068</v>
       </c>
       <c r="L13">
-        <v>1.042081377917501</v>
+        <v>1.007596416893001</v>
       </c>
       <c r="M13">
-        <v>1.054928024791779</v>
+        <v>1.024506355076752</v>
       </c>
       <c r="N13">
-        <v>1.035694475474032</v>
+        <v>1.000058376081993</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027726338126387</v>
+        <v>0.9685070880733672</v>
       </c>
       <c r="D14">
-        <v>1.047256095428369</v>
+        <v>1.024020715838969</v>
       </c>
       <c r="E14">
-        <v>1.038650285607281</v>
+        <v>0.9931769453852449</v>
       </c>
       <c r="F14">
-        <v>1.051543525332924</v>
+        <v>1.010422470472478</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036650635096328</v>
+        <v>1.046368053687747</v>
       </c>
       <c r="J14">
-        <v>1.034354499936599</v>
+        <v>0.9992889663444363</v>
       </c>
       <c r="K14">
-        <v>1.050785641307864</v>
+        <v>1.038519816088471</v>
       </c>
       <c r="L14">
-        <v>1.042211301769434</v>
+        <v>1.008245831391142</v>
       </c>
       <c r="M14">
-        <v>1.055057604899884</v>
+        <v>1.025167189653488</v>
       </c>
       <c r="N14">
-        <v>1.035823401968628</v>
+        <v>1.000708071296692</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027843707534863</v>
+        <v>0.9691305392047258</v>
       </c>
       <c r="D15">
-        <v>1.04732862241897</v>
+        <v>1.024406958739852</v>
       </c>
       <c r="E15">
-        <v>1.038750146487654</v>
+        <v>0.9936748553440673</v>
       </c>
       <c r="F15">
-        <v>1.051642881002556</v>
+        <v>1.010924811631302</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036664280167525</v>
+        <v>1.046485697722237</v>
       </c>
       <c r="J15">
-        <v>1.034433824410083</v>
+        <v>0.9996871479894655</v>
       </c>
       <c r="K15">
-        <v>1.050838647830657</v>
+        <v>1.038813364907856</v>
       </c>
       <c r="L15">
-        <v>1.042291354259579</v>
+        <v>1.008644451463159</v>
       </c>
       <c r="M15">
-        <v>1.055137436448002</v>
+        <v>1.025572801761203</v>
       </c>
       <c r="N15">
-        <v>1.035902839091964</v>
+        <v>1.001106818405329</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028527062412572</v>
+        <v>0.9727227129618093</v>
       </c>
       <c r="D16">
-        <v>1.047750620385672</v>
+        <v>1.026634354221474</v>
       </c>
       <c r="E16">
-        <v>1.039331645626914</v>
+        <v>0.9965470617911066</v>
       </c>
       <c r="F16">
-        <v>1.052221300853678</v>
+        <v>1.013822289968572</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036743143202302</v>
+        <v>1.047159923741831</v>
       </c>
       <c r="J16">
-        <v>1.034895546085949</v>
+        <v>1.001981584948166</v>
       </c>
       <c r="K16">
-        <v>1.051146771520172</v>
+        <v>1.040503495209073</v>
       </c>
       <c r="L16">
-        <v>1.042757326305508</v>
+        <v>1.010942079244844</v>
       </c>
       <c r="M16">
-        <v>1.055601982497138</v>
+        <v>1.027910425925947</v>
       </c>
       <c r="N16">
-        <v>1.036365216465569</v>
+        <v>1.003404513727686</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028955901783295</v>
+        <v>0.9749446919485781</v>
       </c>
       <c r="D17">
-        <v>1.048015203616552</v>
+        <v>1.028013683602362</v>
       </c>
       <c r="E17">
-        <v>1.039696638128599</v>
+        <v>0.998326558750668</v>
       </c>
       <c r="F17">
-        <v>1.052584239277762</v>
+        <v>1.015617151220123</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036792120714354</v>
+        <v>1.047573726559087</v>
       </c>
       <c r="J17">
-        <v>1.035185188404038</v>
+        <v>1.003400964473847</v>
       </c>
       <c r="K17">
-        <v>1.051339698625718</v>
+        <v>1.041547735098152</v>
       </c>
       <c r="L17">
-        <v>1.043049646009573</v>
+        <v>1.012363993212672</v>
       </c>
       <c r="M17">
-        <v>1.0558932840573</v>
+        <v>1.029356786159106</v>
       </c>
       <c r="N17">
-        <v>1.036655270108972</v>
+        <v>1.004825908935099</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029206104714445</v>
+        <v>0.9762298089849651</v>
       </c>
       <c r="D18">
-        <v>1.048169485023875</v>
+        <v>1.028811933386861</v>
       </c>
       <c r="E18">
-        <v>1.039909616006106</v>
+        <v>0.9993567526082433</v>
       </c>
       <c r="F18">
-        <v>1.052795974763996</v>
+        <v>1.016656119370829</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036820511274134</v>
+        <v>1.047811856541005</v>
       </c>
       <c r="J18">
-        <v>1.03535413774333</v>
+        <v>1.00422191084476</v>
       </c>
       <c r="K18">
-        <v>1.051452102973382</v>
+        <v>1.042151201541736</v>
       </c>
       <c r="L18">
-        <v>1.043220160992027</v>
+        <v>1.013186598585154</v>
       </c>
       <c r="M18">
-        <v>1.056063160479481</v>
+        <v>1.030193409395446</v>
       </c>
       <c r="N18">
-        <v>1.036824459375705</v>
+        <v>1.005648021144022</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029291429022564</v>
+        <v>0.9766661798583282</v>
       </c>
       <c r="D19">
-        <v>1.048222083230584</v>
+        <v>1.029083062485233</v>
       </c>
       <c r="E19">
-        <v>1.039982250174278</v>
+        <v>0.9997067275795706</v>
       </c>
       <c r="F19">
-        <v>1.052868177785676</v>
+        <v>1.017009053309901</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036830161649264</v>
+        <v>1.047892509001599</v>
       </c>
       <c r="J19">
-        <v>1.035411746091581</v>
+        <v>1.004500671551748</v>
       </c>
       <c r="K19">
-        <v>1.051490408414312</v>
+        <v>1.042356025737816</v>
       </c>
       <c r="L19">
-        <v>1.043278303849623</v>
+        <v>1.013465954586094</v>
       </c>
       <c r="M19">
-        <v>1.0561210780112</v>
+        <v>1.030477503327129</v>
       </c>
       <c r="N19">
-        <v>1.036882149534419</v>
+        <v>1.005927177723189</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028909884327116</v>
+        <v>0.9747074324916387</v>
       </c>
       <c r="D20">
-        <v>1.047986821036713</v>
+        <v>1.027866348397868</v>
       </c>
       <c r="E20">
-        <v>1.039657469201787</v>
+        <v>0.9981364429399168</v>
       </c>
       <c r="F20">
-        <v>1.05254529531153</v>
+        <v>1.015425406102433</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03678688421486</v>
+        <v>1.047529665128621</v>
       </c>
       <c r="J20">
-        <v>1.035154111914979</v>
+        <v>1.003249402215017</v>
       </c>
       <c r="K20">
-        <v>1.051319012477187</v>
+        <v>1.041436282123205</v>
       </c>
       <c r="L20">
-        <v>1.04301828184995</v>
+        <v>1.012212140092934</v>
       </c>
       <c r="M20">
-        <v>1.055862033754869</v>
+        <v>1.029202334926097</v>
       </c>
       <c r="N20">
-        <v>1.036624149487735</v>
+        <v>1.004674131440477</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027670246280913</v>
+        <v>0.9682084560742072</v>
       </c>
       <c r="D21">
-        <v>1.047221429360523</v>
+        <v>1.023835743536649</v>
       </c>
       <c r="E21">
-        <v>1.0386025627207</v>
+        <v>0.9929385088838807</v>
       </c>
       <c r="F21">
-        <v>1.051496041461786</v>
+        <v>1.010181907389546</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036644103728464</v>
+        <v>1.046311639175924</v>
       </c>
       <c r="J21">
-        <v>1.034316587874979</v>
+        <v>0.9990982426058147</v>
       </c>
       <c r="K21">
-        <v>1.050760300329817</v>
+        <v>1.038379186777465</v>
       </c>
       <c r="L21">
-        <v>1.042173041991422</v>
+        <v>1.00805490982844</v>
       </c>
       <c r="M21">
-        <v>1.055019448251314</v>
+        <v>1.024972914320518</v>
       </c>
       <c r="N21">
-        <v>1.035785436067532</v>
+        <v>1.000517076708485</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026891448734361</v>
+        <v>0.9640160794422626</v>
       </c>
       <c r="D22">
-        <v>1.046739797599631</v>
+        <v>1.021241678940767</v>
       </c>
       <c r="E22">
-        <v>1.037940061677968</v>
+        <v>0.9895954148003341</v>
       </c>
       <c r="F22">
-        <v>1.050836698239248</v>
+        <v>1.006808733222089</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0365527394376</v>
+        <v>1.045515515759924</v>
       </c>
       <c r="J22">
-        <v>1.033790057796625</v>
+        <v>0.9964211150023885</v>
       </c>
       <c r="K22">
-        <v>1.050407881590884</v>
+        <v>1.036403760818414</v>
       </c>
       <c r="L22">
-        <v>1.041641698181632</v>
+        <v>1.005375845287962</v>
       </c>
       <c r="M22">
-        <v>1.054489373493873</v>
+        <v>1.022246503811796</v>
       </c>
       <c r="N22">
-        <v>1.035258158256073</v>
+        <v>0.9978361472767915</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027304246132738</v>
+        <v>0.9662490015181483</v>
       </c>
       <c r="D23">
-        <v>1.046995157086241</v>
+        <v>1.022622677981466</v>
       </c>
       <c r="E23">
-        <v>1.038291193710585</v>
+        <v>0.9913750135547136</v>
       </c>
       <c r="F23">
-        <v>1.051186193676271</v>
+        <v>1.008604400412636</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036601324146169</v>
+        <v>1.04594048723285</v>
       </c>
       <c r="J23">
-        <v>1.03406917610713</v>
+        <v>0.9978469019201426</v>
       </c>
       <c r="K23">
-        <v>1.050594812566451</v>
+        <v>1.037456159846919</v>
       </c>
       <c r="L23">
-        <v>1.041923364702069</v>
+        <v>1.006802467840961</v>
       </c>
       <c r="M23">
-        <v>1.054770405030959</v>
+        <v>1.023698399676379</v>
       </c>
       <c r="N23">
-        <v>1.035537672946594</v>
+        <v>0.9992639589755085</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028930677423901</v>
+        <v>0.9748146735094081</v>
       </c>
       <c r="D24">
-        <v>1.04799964604359</v>
+        <v>1.027932942238759</v>
       </c>
       <c r="E24">
-        <v>1.039675167694474</v>
+        <v>0.9982223720086977</v>
       </c>
       <c r="F24">
-        <v>1.05256289229109</v>
+        <v>1.015512071966916</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036789250911119</v>
+        <v>1.047549584574892</v>
       </c>
       <c r="J24">
-        <v>1.035168154024489</v>
+        <v>1.003317908117855</v>
       </c>
       <c r="K24">
-        <v>1.051328360049055</v>
+        <v>1.041486660267995</v>
       </c>
       <c r="L24">
-        <v>1.04303245393318</v>
+        <v>1.0122807768676</v>
       </c>
       <c r="M24">
-        <v>1.055876154529084</v>
+        <v>1.029272146424149</v>
       </c>
       <c r="N24">
-        <v>1.03663821153865</v>
+        <v>1.004742734629555</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030820736103857</v>
+        <v>0.9843292962586366</v>
       </c>
       <c r="D25">
-        <v>1.049163508562618</v>
+        <v>1.033849838934597</v>
       </c>
       <c r="E25">
-        <v>1.041284482346106</v>
+        <v>1.005866206061998</v>
       </c>
       <c r="F25">
-        <v>1.054162025722583</v>
+        <v>1.023218444966278</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037000376446027</v>
+        <v>1.049290472935259</v>
       </c>
       <c r="J25">
-        <v>1.036443686323376</v>
+        <v>1.009395801086608</v>
       </c>
       <c r="K25">
-        <v>1.052174624001602</v>
+        <v>1.045944460292216</v>
       </c>
       <c r="L25">
-        <v>1.044319874630843</v>
+        <v>1.018374134200011</v>
       </c>
       <c r="M25">
-        <v>1.057157944906388</v>
+        <v>1.035466707916563</v>
       </c>
       <c r="N25">
-        <v>1.037915555239708</v>
+        <v>1.010829258903468</v>
       </c>
     </row>
   </sheetData>
